--- a/assignment_5/Estimates_predictions.xlsx
+++ b/assignment_5/Estimates_predictions.xlsx
@@ -1118,16 +1118,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5561,7 +5561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
